--- a/julia_data/04172024_oligomers_CVprofiling_A-F_1sttry_notes_on_desired_changes.xlsx
+++ b/julia_data/04172024_oligomers_CVprofiling_A-F_1sttry_notes_on_desired_changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin-js99925/Documents/ANSLYN GROUP/DESI april 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshoward/Documents/Programming/PeakPicker/DesiSequencer/julia_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8626CD-B64A-E84A-9465-BDF018EDA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75684EDA-DD4C-D84F-AA1D-CB35EC7FFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spot 0" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>M/Z</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>(CORRECT) M/Z</t>
+  </si>
+  <si>
+    <t>(CORRECT) Monomer lost</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +291,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -363,6 +382,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,16 +454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>444522</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165111</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -465,7 +486,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4483100" y="393700"/>
+          <a:off x="7912100" y="800100"/>
           <a:ext cx="12115822" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -531,16 +552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203503</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>177822</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25411</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209678</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -563,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4889500" y="825500"/>
-          <a:ext cx="12115822" cy="5486411"/>
+          <a:off x="8089048" y="673134"/>
+          <a:ext cx="12059630" cy="5653820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,16 +601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457222</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>609622</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>165111</xdr:rowOff>
+      <xdr:rowOff>177811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -612,7 +633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5168900" y="774700"/>
+          <a:off x="8686800" y="787400"/>
           <a:ext cx="12115822" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1123,12 +1144,12 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1149,8 +1170,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1160,8 +1182,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1171,8 +1194,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1182,8 +1206,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1193,8 +1218,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1207,8 +1233,9 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1224,8 +1251,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1242,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>262</v>
       </c>
@@ -1339,15 +1367,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1357,8 +1389,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1368,8 +1406,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1526.83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1379,8 +1423,14 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1349.75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1390,8 +1440,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1164.6099999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1401,8 +1457,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1021.52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1412,8 +1474,14 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>836.38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1423,8 +1491,14 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>719.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1434,14 +1508,14 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>542</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1451,18 +1525,18 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>441</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10">
         <v>262</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1597,15 +1671,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="G1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1615,8 +1693,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1626,8 +1710,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1290.6099999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1637,8 +1727,14 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1113.53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1648,8 +1744,14 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1012.48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1659,8 +1761,14 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>829.35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1670,11 +1778,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>726.29</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1684,14 +1795,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>625</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1701,26 +1812,26 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>494</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9">
         <v>363</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10">
         <v>262</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1732,15 +1843,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1750,8 +1865,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1761,8 +1882,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1420.69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1772,11 +1899,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>1243.6099999999999</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1786,14 +1916,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1066</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1803,8 +1933,14 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>951.46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1814,8 +1950,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>820.41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1825,11 +1967,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>693.34</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1839,14 +1984,14 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>576</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1856,18 +2001,18 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>445</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10">
         <v>262</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1881,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
